--- a/Projektplanung/Zeiterfassung/Zeiterfassung_Burkert.xlsx
+++ b/Projektplanung/Zeiterfassung/Zeiterfassung_Burkert.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Name:</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Dauer [h]</t>
   </si>
   <si>
-    <t>Überbegriff</t>
+    <t>Buchungsposition</t>
   </si>
   <si>
     <t>Beschreibung</t>
@@ -49,28 +49,49 @@
     <t>Team Meeting</t>
   </si>
   <si>
+    <t>Kick-Off &amp; Vision</t>
+  </si>
+  <si>
     <t>Bus erstellen</t>
   </si>
   <si>
     <t>Einarbeiten in Unity</t>
   </si>
   <si>
+    <t>Team-, Aufgabenverteilung &amp; Product Backlog</t>
+  </si>
+  <si>
     <t>Kamera Tests</t>
   </si>
   <si>
     <t>Treffen in der THU für erste Testfotos der QR Codes</t>
   </si>
   <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sprint - Präsentation vom aktuellen Stand</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objekt Orientiert </t>
   </si>
   <si>
-    <t>Zu Grundlegende Objektklassen erstellt</t>
+    <t>Zu Grundlegende Objektklassen mit ihren Methoden erstellt</t>
+  </si>
+  <si>
+    <t>Neue Aufgabenverteilung und abgleich mit letztem Stand</t>
+  </si>
+  <si>
+    <t>Animierte Textur</t>
+  </si>
+  <si>
+    <t>Implementierung animierter Textur für Kamera Bereiche</t>
   </si>
   <si>
     <t>Kamera Bereiche</t>
   </si>
   <si>
-    <t>Kamera Bereiche: rotieren, anlegen, löschen, umpositionierten</t>
+    <t>Kamera Bereiche mit Sebastian zusammen vollendet</t>
   </si>
   <si>
     <t>Carrier Positon</t>
@@ -82,6 +103,9 @@
     <t>Bugfixing</t>
   </si>
   <si>
+    <t>Zuverlässigkeit bisher implementierter Methoden verbessert</t>
+  </si>
+  <si>
     <t>Station Handler</t>
   </si>
   <si>
@@ -91,7 +115,7 @@
     <t>Linked Station</t>
   </si>
   <si>
-    <t>Verknüpft Stationen miteinander in einer dafür angelegten Datenstruktur</t>
+    <t>Verknüpfung mit Viktor der Stationen in einer dafür angelegten Datenstruktur</t>
   </si>
   <si>
     <t>Bugfixes / Facelift</t>
@@ -106,12 +130,24 @@
     <t>Kamera Bereiche sind nun ebenfalls als Datenstruktur vorhanden und in einem ID System, im Station Object, hinterlegt</t>
   </si>
   <si>
+    <t>Planung Zusammenführung der einzelnen Codes</t>
+  </si>
+  <si>
     <t>Link UI</t>
   </si>
   <si>
     <t>UI wurde mit den Grundlegenden Funktionen des StationHandler verknüpft</t>
   </si>
   <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Mögliches UI Design Ziel gezeichnet</t>
+  </si>
+  <si>
+    <t>Letzte Aufgabenverteilung, Präsentations Besprechnung, Missstände aufgeklärt</t>
+  </si>
+  <si>
     <t>PNG + Bugfixes</t>
   </si>
   <si>
@@ -122,6 +158,15 @@
   </si>
   <si>
     <t>Nicht mehr gebrauchte und nie implementierte Code Bereiche entfernt</t>
+  </si>
+  <si>
+    <t>Sprint &amp; Meeting</t>
+  </si>
+  <si>
+    <t>Sprint mit Herrn Lunde &amp; Daimler TSS mit Nachbesprechung im Team</t>
+  </si>
+  <si>
+    <t>Code den Konventionen nachgeholt &amp; Kleine Bugs (anzeige Fehler) behoben</t>
   </si>
 </sst>
 </file>
@@ -132,7 +177,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -148,6 +193,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +309,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -290,9 +340,6 @@
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -302,11 +349,11 @@
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
@@ -1460,294 +1507,442 @@
       <c r="F7" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" t="s" s="9">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>44124</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>5</v>
       </c>
-      <c r="F8" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s" s="13">
+      <c r="F8" t="s" s="12">
         <v>13</v>
       </c>
+      <c r="G8" t="s" s="12">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="D9" s="11">
+      <c r="D9" s="10">
+        <v>44130</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="D10" s="10">
         <v>44132</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F9" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="D10" s="11">
+      <c r="F10" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="D11" s="10">
+        <v>44137</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="D12" s="10">
         <v>44138</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E12" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="D13" s="10">
+        <v>44139</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="D14" s="10">
+        <v>44146</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="D15" s="10">
+        <v>44147</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="D16" s="10">
+        <v>44150</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="F16" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="D17" s="10">
+        <v>44151</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="D18" s="10">
+        <v>44151</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="D19" s="10">
+        <v>44160</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="D20" s="10">
+        <v>44165</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F20" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="D21" s="10">
+        <v>44167</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="D22" s="10">
+        <v>44174</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="D23" s="10">
+        <v>44176</v>
+      </c>
+      <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F10" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="D11" s="11">
-        <v>44139</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="F23" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="D24" s="10">
+        <v>44179</v>
+      </c>
+      <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="13">
+      <c r="F24" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="D12" s="11">
-        <v>44150</v>
-      </c>
-      <c r="E12" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="F12" t="s" s="13">
+      <c r="G24" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="D25" s="10">
+        <v>44179</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="G12" t="s" s="13">
+      <c r="G25" t="s" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="D13" s="11">
-        <v>44151</v>
-      </c>
-      <c r="E13" s="12">
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="D26" s="10">
+        <v>44188</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F26" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="D27" s="10">
+        <v>44193</v>
+      </c>
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F13" t="s" s="13">
+      <c r="F27" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="D14" s="11">
-        <v>44160</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="G27" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="D28" s="10">
+        <v>44194</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="D29" s="10">
+        <v>44195</v>
+      </c>
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="F14" t="s" s="13">
+      <c r="F29" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" ht="32.05" customHeight="1">
+      <c r="D30" s="10">
+        <v>44198</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F30" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="D31" s="10">
+        <v>44199</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="D15" s="11">
-        <v>44165</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="G31" t="s" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="D32" s="10">
+        <v>44202</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F32" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="D33" s="10">
+        <v>44204</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="D34" s="10">
+        <v>44207</v>
+      </c>
+      <c r="E34" s="11">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s" s="13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="D16" s="11">
-        <v>44167</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="F34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="D35" s="10">
+        <v>44207</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="F35" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="D36" s="10">
+        <v>44208</v>
+      </c>
+      <c r="E36" s="11">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="D17" s="11">
-        <v>44174</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="F36" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="D37" s="10">
+        <v>44209</v>
+      </c>
+      <c r="E37" s="11">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="D18" s="11">
-        <v>44176</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="F37" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="D38" s="10">
+        <v>44210</v>
+      </c>
+      <c r="E38" s="11">
         <v>2</v>
       </c>
-      <c r="F18" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="D19" s="11">
-        <v>44179</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="D20" s="11">
-        <v>44188</v>
-      </c>
-      <c r="E20" s="12">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s" s="13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="D21" s="11">
-        <v>44193</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="D22" s="11">
-        <v>44194</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s" s="13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="D23" s="11">
-        <v>44195</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="32.05" customHeight="1">
-      <c r="D24" s="11">
-        <v>44198</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="F24" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="D25" s="11">
-        <v>44199</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="D26" s="11">
-        <v>44202</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="D27" s="11">
-        <v>44207</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="D28" s="11">
-        <v>44207</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="F28" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="D29" s="11">
-        <v>44208</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s" s="13">
+      <c r="F38" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="G29" t="s" s="13">
-        <v>36</v>
+      <c r="G38" t="s" s="12">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Projektplanung/Zeiterfassung/Zeiterfassung_Burkert.xlsx
+++ b/Projektplanung/Zeiterfassung/Zeiterfassung_Burkert.xlsx
@@ -163,7 +163,7 @@
     <t>Sprint &amp; Meeting</t>
   </si>
   <si>
-    <t>Sprint mit Herrn Lunde &amp; Daimler TSS mit Nachbesprechung im Team</t>
+    <t>Sprint mit Herrn Lunde &amp; EvoBus mit Nachbesprechung im Team</t>
   </si>
   <si>
     <t>Code den Konventionen nachgeholt &amp; Kleine Bugs (anzeige Fehler) behoben</t>
